--- a/Templates/Examples/PCI CRS.xlsx
+++ b/Templates/Examples/PCI CRS.xlsx
@@ -33,7 +33,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="crs-example" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="1" name="crs-example" type="6" refreshedVersion="3" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="E:\Dropbox\Guinea IPC data\Templates\Examples\crs-example.csv" tab="0" comma="1">
       <textFields count="11">
         <textField/>
@@ -6248,15 +6248,9 @@
     <t>Nom de l'Établissement</t>
   </si>
   <si>
-    <t>Établ. privée? (o/n)</t>
-  </si>
-  <si>
     <t>Clinique Stade</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>Association pour le developpement medical et communautaire de Guinee</t>
   </si>
   <si>
@@ -7068,6 +7062,12 @@
   </si>
   <si>
     <t>voumou</t>
+  </si>
+  <si>
+    <t>Public ou privé?</t>
+  </si>
+  <si>
+    <t>prive</t>
   </si>
 </sst>
 </file>
@@ -7598,7 +7598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7647,7 +7647,7 @@
         <v>1578</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>2064</v>
+        <v>2336</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>2061</v>
@@ -7711,10 +7711,10 @@
         <v>71</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>1597</v>
@@ -7731,10 +7731,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>1597</v>
@@ -7751,10 +7751,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>1597</v>
@@ -7771,10 +7771,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>1597</v>
@@ -7791,10 +7791,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>1597</v>
@@ -7811,10 +7811,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>1597</v>
@@ -7831,10 +7831,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>1597</v>
@@ -7851,10 +7851,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>1597</v>
@@ -7871,10 +7871,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>1597</v>
@@ -7891,10 +7891,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>1597</v>
@@ -7911,10 +7911,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>1597</v>
@@ -7931,10 +7931,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>1597</v>
@@ -7951,10 +7951,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>1597</v>
@@ -7971,10 +7971,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>1597</v>
@@ -7991,10 +7991,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>1597</v>
@@ -8011,10 +8011,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>1597</v>
@@ -8031,10 +8031,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>1597</v>
@@ -8051,10 +8051,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>1597</v>
@@ -8071,10 +8071,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>1597</v>
@@ -8091,10 +8091,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>1597</v>
@@ -8111,10 +8111,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>1597</v>
@@ -8131,10 +8131,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>1597</v>
@@ -8151,10 +8151,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>1597</v>
@@ -8171,10 +8171,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>1597</v>
@@ -8191,10 +8191,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>1597</v>
@@ -8211,10 +8211,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>1597</v>
@@ -8231,10 +8231,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>1597</v>
@@ -8251,10 +8251,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>1597</v>
@@ -8271,10 +8271,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>1597</v>
@@ -8291,10 +8291,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>1597</v>
@@ -8311,10 +8311,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>1597</v>
@@ -8331,10 +8331,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>1597</v>
@@ -8351,10 +8351,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>1597</v>
@@ -8371,10 +8371,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>1597</v>
@@ -8391,10 +8391,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>1597</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>1597</v>
@@ -8431,10 +8431,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>1597</v>
@@ -8451,10 +8451,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>1597</v>
@@ -8471,10 +8471,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>1597</v>
@@ -8491,10 +8491,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>1597</v>
@@ -8511,10 +8511,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>1597</v>
@@ -8531,10 +8531,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>1597</v>
@@ -8551,10 +8551,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>1597</v>
@@ -8571,10 +8571,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>1597</v>
@@ -8591,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>1597</v>
@@ -8611,10 +8611,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>1597</v>
@@ -8631,10 +8631,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>1597</v>
@@ -8651,10 +8651,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>1597</v>
@@ -8671,10 +8671,10 @@
         <v>1</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>1597</v>
@@ -8691,10 +8691,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>1597</v>
@@ -8711,10 +8711,10 @@
         <v>1</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>1597</v>
@@ -8731,10 +8731,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>1597</v>
@@ -8751,10 +8751,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>1597</v>
@@ -8771,10 +8771,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>1597</v>
@@ -8788,10 +8788,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>1597</v>
@@ -8808,10 +8808,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>1597</v>
@@ -8828,10 +8828,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>1597</v>
@@ -8848,10 +8848,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G61" s="23" t="s">
         <v>1597</v>
@@ -8868,10 +8868,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G62" s="23" t="s">
         <v>1597</v>
@@ -8888,10 +8888,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>1597</v>
@@ -8908,10 +8908,10 @@
         <v>1</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G64" s="23" t="s">
         <v>1597</v>
@@ -8928,10 +8928,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>1597</v>
@@ -8948,10 +8948,10 @@
         <v>1</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G66" s="23" t="s">
         <v>1597</v>
@@ -8968,10 +8968,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G67" s="23" t="s">
         <v>1597</v>
@@ -8988,10 +8988,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>1597</v>
@@ -9054,7 +9054,7 @@
         <v>1203</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G71" s="23" t="s">
         <v>1597</v>
@@ -9114,10 +9114,10 @@
         <v>71</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G74" s="23" t="s">
         <v>1597</v>
@@ -9140,7 +9140,7 @@
         <v>1372</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G75" s="23" t="s">
         <v>1597</v>
@@ -9180,10 +9180,10 @@
         <v>71</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G77" s="23" t="s">
         <v>1597</v>
@@ -9223,10 +9223,10 @@
         <v>71</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G79" s="23" t="s">
         <v>1597</v>
@@ -9246,10 +9246,10 @@
         <v>71</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>1597</v>
@@ -9269,10 +9269,10 @@
         <v>71</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>1597</v>
@@ -9315,7 +9315,7 @@
         <v>1442</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G83" s="23" t="s">
         <v>1597</v>
@@ -9338,7 +9338,7 @@
         <v>1447</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G84" s="23" t="s">
         <v>1597</v>
@@ -9401,7 +9401,7 @@
         <v>1473</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G87" s="23" t="s">
         <v>1597</v>
@@ -9464,7 +9464,7 @@
         <v>1495</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G90" s="23" t="s">
         <v>1597</v>
@@ -9487,7 +9487,7 @@
         <v>1501</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G91" s="23" t="s">
         <v>1597</v>
@@ -9530,7 +9530,7 @@
         <v>1416</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G93" s="23" t="s">
         <v>1597</v>
@@ -9693,7 +9693,7 @@
         <v>1509</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G101" s="23" t="s">
         <v>1597</v>
@@ -9716,7 +9716,7 @@
         <v>1510</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G102" s="23" t="s">
         <v>1597</v>
@@ -9736,10 +9736,10 @@
         <v>72</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G103" s="23" t="s">
         <v>1597</v>
@@ -9802,7 +9802,7 @@
         <v>1393</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G106" s="23" t="s">
         <v>1597</v>
@@ -9845,7 +9845,7 @@
         <v>928</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G108" s="23" t="s">
         <v>1597</v>
@@ -9905,10 +9905,10 @@
         <v>73</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G111" s="23" t="s">
         <v>1597</v>
@@ -9951,7 +9951,7 @@
         <v>1407</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G113" s="23" t="s">
         <v>1597</v>
@@ -9971,10 +9971,10 @@
         <v>73</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G114" s="23" t="s">
         <v>1597</v>
@@ -9994,10 +9994,10 @@
         <v>73</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>1597</v>
@@ -10060,7 +10060,7 @@
         <v>1487</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G118" s="23" t="s">
         <v>1597</v>
@@ -10083,7 +10083,7 @@
         <v>1490</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G119" s="23" t="s">
         <v>1597</v>
@@ -10183,10 +10183,10 @@
         <v>74</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="F124" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G124" s="23" t="s">
         <v>1597</v>
@@ -10206,10 +10206,10 @@
         <v>74</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="F125" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G125" s="23" t="s">
         <v>1597</v>
@@ -10229,10 +10229,10 @@
         <v>74</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G126" s="23" t="s">
         <v>1597</v>
@@ -10252,10 +10252,10 @@
         <v>74</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G127" s="23" t="s">
         <v>1597</v>
@@ -10275,10 +10275,10 @@
         <v>74</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="F128" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G128" s="23" t="s">
         <v>1597</v>
@@ -10298,10 +10298,10 @@
         <v>74</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G129" s="23" t="s">
         <v>1597</v>
@@ -10321,10 +10321,10 @@
         <v>74</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G130" s="23" t="s">
         <v>1597</v>
@@ -10344,10 +10344,10 @@
         <v>74</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G131" s="23" t="s">
         <v>1597</v>
@@ -10367,10 +10367,10 @@
         <v>74</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G132" s="23" t="s">
         <v>1597</v>
@@ -10393,7 +10393,7 @@
         <v>1433</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G133" s="23" t="s">
         <v>1597</v>
@@ -10553,10 +10553,10 @@
         <v>74</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G141" s="23" t="s">
         <v>1597</v>
@@ -10576,10 +10576,10 @@
         <v>74</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G142" s="23" t="s">
         <v>1597</v>
@@ -10599,10 +10599,10 @@
         <v>74</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G143" s="23" t="s">
         <v>1597</v>
@@ -10622,10 +10622,10 @@
         <v>74</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G144" s="23" t="s">
         <v>1597</v>
@@ -10645,10 +10645,10 @@
         <v>74</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G145" s="23" t="s">
         <v>1597</v>
@@ -10668,10 +10668,10 @@
         <v>74</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="F146" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G146" s="23" t="s">
         <v>1597</v>
@@ -10691,10 +10691,10 @@
         <v>74</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="F147" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G147" s="23" t="s">
         <v>1597</v>
@@ -10714,10 +10714,10 @@
         <v>74</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="F148" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G148" s="23" t="s">
         <v>1597</v>
@@ -10737,10 +10737,10 @@
         <v>74</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="F149" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G149" s="23" t="s">
         <v>1597</v>
@@ -10800,10 +10800,10 @@
         <v>74</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="F152" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G152" s="23" t="s">
         <v>1597</v>
@@ -10846,7 +10846,7 @@
         <v>1467</v>
       </c>
       <c r="F154" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G154" s="23" t="s">
         <v>1597</v>
@@ -10866,10 +10866,10 @@
         <v>74</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G155" s="23" t="s">
         <v>1597</v>
@@ -11012,7 +11012,7 @@
         <v>1518</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G162" s="23" t="s">
         <v>1597</v>
@@ -11035,7 +11035,7 @@
         <v>1521</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G163" s="23" t="s">
         <v>1597</v>
@@ -11058,7 +11058,7 @@
         <v>1524</v>
       </c>
       <c r="F164" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G164" s="23" t="s">
         <v>1597</v>
@@ -11078,10 +11078,10 @@
         <v>74</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="F165" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G165" s="23" t="s">
         <v>1597</v>
@@ -11104,7 +11104,7 @@
         <v>1530</v>
       </c>
       <c r="F166" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G166" s="23" t="s">
         <v>1597</v>
@@ -11144,10 +11144,10 @@
         <v>74</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="F168" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G168" s="23" t="s">
         <v>1597</v>
@@ -11167,10 +11167,10 @@
         <v>74</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="F169" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G169" s="23" t="s">
         <v>1597</v>
@@ -11190,10 +11190,10 @@
         <v>75</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="F170" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G170" s="23" t="s">
         <v>1597</v>
@@ -11216,7 +11216,7 @@
         <v>695</v>
       </c>
       <c r="F171" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G171" s="23" t="s">
         <v>1597</v>
@@ -11239,7 +11239,7 @@
         <v>1207</v>
       </c>
       <c r="F172" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G172" s="23" t="s">
         <v>1597</v>
@@ -11262,7 +11262,7 @@
         <v>1274</v>
       </c>
       <c r="F173" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G173" s="23" t="s">
         <v>1597</v>
@@ -11282,10 +11282,10 @@
         <v>75</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="F174" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G174" s="23" t="s">
         <v>1597</v>
@@ -11305,10 +11305,10 @@
         <v>75</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="F175" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G175" s="23" t="s">
         <v>1597</v>
@@ -11371,7 +11371,7 @@
         <v>1544</v>
       </c>
       <c r="F178" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G178" s="23" t="s">
         <v>1597</v>
@@ -11394,7 +11394,7 @@
         <v>1545</v>
       </c>
       <c r="F179" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G179" s="23" t="s">
         <v>1597</v>
@@ -11417,7 +11417,7 @@
         <v>1546</v>
       </c>
       <c r="F180" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G180" s="23" t="s">
         <v>1597</v>
@@ -11440,7 +11440,7 @@
         <v>1548</v>
       </c>
       <c r="F181" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G181" s="23" t="s">
         <v>1597</v>
@@ -11463,7 +11463,7 @@
         <v>1551</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G182" s="23" t="s">
         <v>1597</v>
@@ -11483,10 +11483,10 @@
         <v>75</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G183" s="23" t="s">
         <v>1597</v>
@@ -11506,10 +11506,10 @@
         <v>75</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G184" s="23" t="s">
         <v>1597</v>
@@ -11532,7 +11532,7 @@
         <v>1427</v>
       </c>
       <c r="F185" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G185" s="23" t="s">
         <v>1597</v>
@@ -11555,7 +11555,7 @@
         <v>1440</v>
       </c>
       <c r="F186" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G186" s="23" t="s">
         <v>1597</v>
@@ -11578,7 +11578,7 @@
         <v>1445</v>
       </c>
       <c r="F187" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G187" s="23" t="s">
         <v>1597</v>
@@ -11601,7 +11601,7 @@
         <v>1450</v>
       </c>
       <c r="F188" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G188" s="23" t="s">
         <v>1597</v>
@@ -11764,7 +11764,7 @@
         <v>1514</v>
       </c>
       <c r="F196" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G196" s="23" t="s">
         <v>1597</v>
@@ -11784,7 +11784,7 @@
         <v>75</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="G197" s="23" t="s">
         <v>1597</v>
@@ -11804,10 +11804,10 @@
         <v>75</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="F198" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G198" s="23" t="s">
         <v>1597</v>
@@ -11827,7 +11827,7 @@
         <v>75</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="G199" s="23" t="s">
         <v>1597</v>
@@ -11847,10 +11847,10 @@
         <v>75</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="F200" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G200" s="23" t="s">
         <v>1597</v>
@@ -11870,10 +11870,10 @@
         <v>75</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="F201" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G201" s="23" t="s">
         <v>1597</v>
@@ -11893,10 +11893,10 @@
         <v>75</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="F202" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G202" s="23" t="s">
         <v>1597</v>
@@ -11916,10 +11916,10 @@
         <v>75</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="F203" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G203" s="23" t="s">
         <v>1597</v>
@@ -11939,7 +11939,7 @@
         <v>75</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="G204" s="23" t="s">
         <v>1597</v>
@@ -11959,10 +11959,10 @@
         <v>75</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="F205" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G205" s="23" t="s">
         <v>1597</v>
@@ -11982,10 +11982,10 @@
         <v>75</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="F206" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G206" s="23" t="s">
         <v>1597</v>
@@ -12005,10 +12005,10 @@
         <v>75</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="F207" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G207" s="23" t="s">
         <v>1597</v>
@@ -12168,10 +12168,10 @@
         <v>75</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="F215" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G215" s="23" t="s">
         <v>1597</v>
@@ -12191,10 +12191,10 @@
         <v>75</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="F216" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G216" s="23" t="s">
         <v>1597</v>
@@ -12214,10 +12214,10 @@
         <v>75</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="F217" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G217" s="23" t="s">
         <v>1597</v>
@@ -12237,10 +12237,10 @@
         <v>75</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="F218" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G218" s="23" t="s">
         <v>1597</v>
@@ -12260,10 +12260,10 @@
         <v>75</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="F219" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G219" s="23" t="s">
         <v>1597</v>
@@ -12283,7 +12283,7 @@
         <v>75</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="G220" s="23" t="s">
         <v>1597</v>
@@ -12303,10 +12303,10 @@
         <v>75</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="F221" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G221" s="23" t="s">
         <v>1597</v>
@@ -12326,10 +12326,10 @@
         <v>75</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="F222" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G222" s="23" t="s">
         <v>1597</v>
@@ -12352,7 +12352,7 @@
         <v>1534</v>
       </c>
       <c r="F223" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G223" s="23" t="s">
         <v>1597</v>
@@ -12372,10 +12372,10 @@
         <v>75</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="F224" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G224" s="23" t="s">
         <v>1597</v>
@@ -12395,10 +12395,10 @@
         <v>75</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="F225" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G225" s="23" t="s">
         <v>1597</v>
@@ -12418,10 +12418,10 @@
         <v>75</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="F226" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G226" s="23" t="s">
         <v>1597</v>
@@ -12441,10 +12441,10 @@
         <v>75</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="F227" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G227" s="23" t="s">
         <v>1597</v>
@@ -12464,10 +12464,10 @@
         <v>75</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="F228" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G228" s="23" t="s">
         <v>1597</v>
@@ -12487,10 +12487,10 @@
         <v>75</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="F229" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G229" s="23" t="s">
         <v>1597</v>
@@ -12510,10 +12510,10 @@
         <v>75</v>
       </c>
       <c r="D230" s="23" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="F230" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G230" s="23" t="s">
         <v>1597</v>
@@ -12533,10 +12533,10 @@
         <v>75</v>
       </c>
       <c r="D231" s="23" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="F231" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G231" s="23" t="s">
         <v>1597</v>
@@ -12576,10 +12576,10 @@
         <v>75</v>
       </c>
       <c r="D233" s="23" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="F233" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G233" s="23" t="s">
         <v>1597</v>
@@ -12599,10 +12599,10 @@
         <v>75</v>
       </c>
       <c r="D234" s="23" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="F234" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G234" s="23" t="s">
         <v>1597</v>
@@ -12622,10 +12622,10 @@
         <v>75</v>
       </c>
       <c r="D235" s="23" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="F235" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G235" s="23" t="s">
         <v>1597</v>
@@ -12645,10 +12645,10 @@
         <v>75</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="F236" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G236" s="23" t="s">
         <v>1597</v>
@@ -12668,10 +12668,10 @@
         <v>75</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="F237" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G237" s="23" t="s">
         <v>1597</v>
@@ -12691,10 +12691,10 @@
         <v>75</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="F238" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G238" s="23" t="s">
         <v>1597</v>
@@ -12717,7 +12717,7 @@
         <v>1543</v>
       </c>
       <c r="F239" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G239" s="23" t="s">
         <v>1597</v>
@@ -12737,10 +12737,10 @@
         <v>75</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="F240" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G240" s="23" t="s">
         <v>1597</v>
@@ -12760,10 +12760,10 @@
         <v>75</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="F241" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G241" s="23" t="s">
         <v>1597</v>
@@ -12803,7 +12803,7 @@
         <v>75</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="G243" s="23" t="s">
         <v>1597</v>
@@ -12826,7 +12826,7 @@
         <v>1562</v>
       </c>
       <c r="F244" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G244" s="23" t="s">
         <v>1597</v>
@@ -12846,10 +12846,10 @@
         <v>75</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="F245" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G245" s="23" t="s">
         <v>1597</v>
@@ -12869,10 +12869,10 @@
         <v>75</v>
       </c>
       <c r="D246" s="23" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="F246" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G246" s="23" t="s">
         <v>1597</v>
@@ -12892,10 +12892,10 @@
         <v>75</v>
       </c>
       <c r="D247" s="23" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="F247" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G247" s="23" t="s">
         <v>1597</v>
@@ -12915,10 +12915,10 @@
         <v>75</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="F248" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G248" s="23" t="s">
         <v>1597</v>
@@ -12938,10 +12938,10 @@
         <v>75</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="F249" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G249" s="23" t="s">
         <v>1597</v>
@@ -12961,10 +12961,10 @@
         <v>75</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="F250" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G250" s="23" t="s">
         <v>1597</v>
@@ -12984,7 +12984,7 @@
         <v>2021</v>
       </c>
       <c r="F251" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G251" s="23" t="s">
         <v>1597</v>
@@ -13004,10 +13004,10 @@
         <v>75</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="F252" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G252" s="23" t="s">
         <v>1597</v>
@@ -13027,10 +13027,10 @@
         <v>75</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="F253" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G253" s="23" t="s">
         <v>1597</v>
@@ -13050,10 +13050,10 @@
         <v>75</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="F254" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G254" s="23" t="s">
         <v>1597</v>
@@ -13073,10 +13073,10 @@
         <v>75</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="F255" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G255" s="23" t="s">
         <v>1597</v>
@@ -13096,10 +13096,10 @@
         <v>75</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="F256" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G256" s="23" t="s">
         <v>1597</v>
@@ -13119,10 +13119,10 @@
         <v>75</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="F257" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G257" s="23" t="s">
         <v>1597</v>
@@ -13142,10 +13142,10 @@
         <v>75</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="F258" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G258" s="23" t="s">
         <v>1597</v>
@@ -13165,10 +13165,10 @@
         <v>75</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="F259" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G259" s="23" t="s">
         <v>1597</v>
@@ -13188,10 +13188,10 @@
         <v>75</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="F260" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G260" s="23" t="s">
         <v>1597</v>
@@ -13211,10 +13211,10 @@
         <v>75</v>
       </c>
       <c r="D261" s="23" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="F261" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G261" s="23" t="s">
         <v>1597</v>
@@ -13234,10 +13234,10 @@
         <v>75</v>
       </c>
       <c r="D262" s="23" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="F262" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G262" s="23" t="s">
         <v>1597</v>
@@ -13257,10 +13257,10 @@
         <v>75</v>
       </c>
       <c r="D263" s="23" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="F263" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G263" s="23" t="s">
         <v>1597</v>
@@ -13280,10 +13280,10 @@
         <v>75</v>
       </c>
       <c r="D264" s="23" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="F264" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G264" s="23" t="s">
         <v>1597</v>
@@ -13303,10 +13303,10 @@
         <v>75</v>
       </c>
       <c r="D265" s="23" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="F265" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G265" s="23" t="s">
         <v>1597</v>
@@ -13326,10 +13326,10 @@
         <v>75</v>
       </c>
       <c r="D266" s="23" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="F266" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G266" s="23" t="s">
         <v>1597</v>
@@ -13352,7 +13352,7 @@
         <v>1280</v>
       </c>
       <c r="F267" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G267" s="23" t="s">
         <v>1597</v>
@@ -13372,7 +13372,7 @@
         <v>128</v>
       </c>
       <c r="F268" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G268" s="23" t="s">
         <v>1597</v>
@@ -13395,10 +13395,10 @@
         <v>15</v>
       </c>
       <c r="D269" s="23" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="F269" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G269" s="23" t="s">
         <v>1597</v>
@@ -13421,7 +13421,7 @@
         <v>15</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="G270" s="23" t="s">
         <v>1597</v>
@@ -13707,7 +13707,7 @@
         <v>134</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="G281" s="23" t="s">
         <v>1597</v>
@@ -13733,7 +13733,7 @@
         <v>134</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="G282" s="23" t="s">
         <v>1597</v>
@@ -13756,7 +13756,7 @@
         <v>32</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="G283" s="23" t="s">
         <v>1597</v>
@@ -13779,7 +13779,7 @@
         <v>32</v>
       </c>
       <c r="D284" s="23" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="G284" s="23" t="s">
         <v>1597</v>
@@ -13802,7 +13802,7 @@
         <v>32</v>
       </c>
       <c r="D285" s="23" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="G285" s="23" t="s">
         <v>1597</v>
@@ -13906,13 +13906,13 @@
         <v>328</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="G289" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H289" s="27" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="J289" s="23" t="s">
         <v>1607</v>
@@ -13935,7 +13935,7 @@
         <v>1597</v>
       </c>
       <c r="H290" s="27" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="J290" s="23" t="s">
         <v>1607</v>
@@ -13958,7 +13958,7 @@
         <v>1597</v>
       </c>
       <c r="H291" s="27" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="J291" s="23" t="s">
         <v>1607</v>
@@ -14033,7 +14033,7 @@
         <v>1597</v>
       </c>
       <c r="H294" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J294" s="23" t="s">
         <v>1607</v>
@@ -14050,13 +14050,13 @@
         <v>331</v>
       </c>
       <c r="D295" s="23" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="G295" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H295" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J295" s="23" t="s">
         <v>1607</v>
@@ -14099,13 +14099,13 @@
         <v>332</v>
       </c>
       <c r="D297" s="23" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="G297" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H297" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J297" s="23" t="s">
         <v>1607</v>
@@ -14148,13 +14148,13 @@
         <v>332</v>
       </c>
       <c r="D299" s="23" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="G299" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H299" s="27" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="J299" s="23" t="s">
         <v>1607</v>
@@ -14171,13 +14171,13 @@
         <v>332</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="G300" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H300" s="27" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="J300" s="23" t="s">
         <v>1607</v>
@@ -14194,13 +14194,13 @@
         <v>332</v>
       </c>
       <c r="D301" s="23" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="G301" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H301" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J301" s="23" t="s">
         <v>1607</v>
@@ -14217,13 +14217,13 @@
         <v>333</v>
       </c>
       <c r="D302" s="23" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="G302" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H302" s="27" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="J302" s="23" t="s">
         <v>1607</v>
@@ -14266,13 +14266,13 @@
         <v>333</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="G304" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H304" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J304" s="23" t="s">
         <v>1607</v>
@@ -14321,7 +14321,7 @@
         <v>1597</v>
       </c>
       <c r="H306" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J306" s="23" t="s">
         <v>1607</v>
@@ -14364,13 +14364,13 @@
         <v>335</v>
       </c>
       <c r="D308" s="23" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="G308" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H308" s="27" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="J308" s="23" t="s">
         <v>1607</v>
@@ -14393,7 +14393,7 @@
         <v>1597</v>
       </c>
       <c r="H309" s="27" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="J309" s="23" t="s">
         <v>1607</v>
@@ -14410,13 +14410,13 @@
         <v>335</v>
       </c>
       <c r="D310" s="23" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="G310" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H310" s="27" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="J310" s="23" t="s">
         <v>1607</v>
@@ -14433,13 +14433,13 @@
         <v>336</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="G311" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H311" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J311" s="23" t="s">
         <v>1607</v>
@@ -14482,13 +14482,13 @@
         <v>337</v>
       </c>
       <c r="D313" s="23" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="G313" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H313" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J313" s="23" t="s">
         <v>1607</v>
@@ -14511,7 +14511,7 @@
         <v>1597</v>
       </c>
       <c r="J314" s="23" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -14574,16 +14574,16 @@
         <v>7</v>
       </c>
       <c r="D317" s="23" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="F317" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G317" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H317" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J317" s="23" t="s">
         <v>1607</v>
@@ -14597,16 +14597,16 @@
         <v>7</v>
       </c>
       <c r="D318" s="23" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="F318" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G318" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H318" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J318" s="23" t="s">
         <v>1607</v>
@@ -14620,16 +14620,16 @@
         <v>7</v>
       </c>
       <c r="D319" s="23" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="F319" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G319" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H319" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J319" s="23" t="s">
         <v>1607</v>
@@ -14643,16 +14643,16 @@
         <v>7</v>
       </c>
       <c r="D320" s="23" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="F320" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G320" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H320" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J320" s="23" t="s">
         <v>1607</v>
@@ -14666,16 +14666,16 @@
         <v>7</v>
       </c>
       <c r="D321" s="23" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="F321" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G321" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H321" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J321" s="23" t="s">
         <v>1607</v>
@@ -14689,16 +14689,16 @@
         <v>7</v>
       </c>
       <c r="D322" s="23" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="F322" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G322" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H322" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J322" s="23" t="s">
         <v>1607</v>
@@ -14712,16 +14712,16 @@
         <v>7</v>
       </c>
       <c r="D323" s="23" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="F323" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G323" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H323" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J323" s="23" t="s">
         <v>1607</v>
@@ -14735,16 +14735,16 @@
         <v>7</v>
       </c>
       <c r="D324" s="23" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="F324" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G324" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H324" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J324" s="23" t="s">
         <v>1607</v>
@@ -14758,16 +14758,16 @@
         <v>7</v>
       </c>
       <c r="D325" s="23" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="F325" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G325" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H325" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J325" s="23" t="s">
         <v>1607</v>
@@ -14781,16 +14781,16 @@
         <v>7</v>
       </c>
       <c r="D326" s="23" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="F326" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G326" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H326" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J326" s="23" t="s">
         <v>1607</v>
@@ -14804,16 +14804,16 @@
         <v>7</v>
       </c>
       <c r="D327" s="23" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="F327" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G327" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H327" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J327" s="23" t="s">
         <v>1607</v>
@@ -14827,16 +14827,16 @@
         <v>7</v>
       </c>
       <c r="D328" s="23" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="F328" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G328" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H328" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J328" s="23" t="s">
         <v>1607</v>
@@ -14850,16 +14850,16 @@
         <v>7</v>
       </c>
       <c r="D329" s="23" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="F329" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G329" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H329" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J329" s="23" t="s">
         <v>1607</v>
@@ -14873,16 +14873,16 @@
         <v>7</v>
       </c>
       <c r="D330" s="23" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="F330" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G330" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H330" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J330" s="23" t="s">
         <v>1607</v>
@@ -14896,16 +14896,16 @@
         <v>7</v>
       </c>
       <c r="D331" s="23" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="F331" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G331" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H331" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J331" s="23" t="s">
         <v>1607</v>
@@ -14919,16 +14919,16 @@
         <v>7</v>
       </c>
       <c r="D332" s="23" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="F332" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G332" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H332" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J332" s="23" t="s">
         <v>1607</v>
@@ -14942,16 +14942,16 @@
         <v>7</v>
       </c>
       <c r="D333" s="23" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="F333" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G333" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H333" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J333" s="23" t="s">
         <v>1607</v>
@@ -14965,16 +14965,16 @@
         <v>7</v>
       </c>
       <c r="D334" s="23" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="F334" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G334" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H334" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J334" s="23" t="s">
         <v>1607</v>
@@ -14988,16 +14988,16 @@
         <v>7</v>
       </c>
       <c r="D335" s="23" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="F335" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G335" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H335" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J335" s="23" t="s">
         <v>1607</v>
@@ -15011,16 +15011,16 @@
         <v>7</v>
       </c>
       <c r="D336" s="23" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="F336" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G336" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H336" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J336" s="23" t="s">
         <v>1607</v>
@@ -15034,16 +15034,16 @@
         <v>7</v>
       </c>
       <c r="D337" s="23" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="F337" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G337" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H337" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J337" s="23" t="s">
         <v>1607</v>
@@ -15057,16 +15057,16 @@
         <v>7</v>
       </c>
       <c r="D338" s="23" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="F338" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G338" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H338" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J338" s="23" t="s">
         <v>1607</v>
@@ -15080,16 +15080,16 @@
         <v>7</v>
       </c>
       <c r="D339" s="23" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="F339" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G339" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H339" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J339" s="23" t="s">
         <v>1607</v>
@@ -15103,16 +15103,16 @@
         <v>7</v>
       </c>
       <c r="D340" s="23" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="F340" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G340" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H340" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J340" s="23" t="s">
         <v>1607</v>
@@ -15126,16 +15126,16 @@
         <v>7</v>
       </c>
       <c r="D341" s="23" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="F341" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G341" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H341" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J341" s="23" t="s">
         <v>1607</v>
@@ -15149,16 +15149,16 @@
         <v>7</v>
       </c>
       <c r="D342" s="23" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="F342" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G342" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H342" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J342" s="23" t="s">
         <v>1607</v>
@@ -15172,16 +15172,16 @@
         <v>7</v>
       </c>
       <c r="D343" s="23" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="F343" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G343" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H343" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J343" s="23" t="s">
         <v>1607</v>
@@ -15195,16 +15195,16 @@
         <v>7</v>
       </c>
       <c r="D344" s="23" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="F344" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G344" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H344" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J344" s="23" t="s">
         <v>1607</v>
@@ -15218,16 +15218,16 @@
         <v>7</v>
       </c>
       <c r="D345" s="23" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="F345" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G345" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H345" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J345" s="23" t="s">
         <v>1607</v>
@@ -15241,16 +15241,16 @@
         <v>7</v>
       </c>
       <c r="D346" s="23" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="F346" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G346" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H346" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J346" s="23" t="s">
         <v>1607</v>
@@ -15264,16 +15264,16 @@
         <v>7</v>
       </c>
       <c r="D347" s="23" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="F347" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G347" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H347" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J347" s="23" t="s">
         <v>1607</v>
@@ -15287,16 +15287,16 @@
         <v>7</v>
       </c>
       <c r="D348" s="23" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="F348" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G348" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H348" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J348" s="23" t="s">
         <v>1607</v>
@@ -15310,16 +15310,16 @@
         <v>7</v>
       </c>
       <c r="D349" s="23" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="F349" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G349" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H349" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J349" s="23" t="s">
         <v>1607</v>
@@ -15333,16 +15333,16 @@
         <v>7</v>
       </c>
       <c r="D350" s="23" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="F350" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G350" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H350" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J350" s="23" t="s">
         <v>1607</v>
@@ -15356,16 +15356,16 @@
         <v>7</v>
       </c>
       <c r="D351" s="23" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="F351" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G351" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H351" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J351" s="23" t="s">
         <v>1607</v>
@@ -15379,16 +15379,16 @@
         <v>7</v>
       </c>
       <c r="D352" s="23" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="F352" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G352" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H352" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J352" s="23" t="s">
         <v>1607</v>
@@ -15402,16 +15402,16 @@
         <v>7</v>
       </c>
       <c r="D353" s="23" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="F353" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G353" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H353" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J353" s="23" t="s">
         <v>1607</v>
@@ -15425,16 +15425,16 @@
         <v>7</v>
       </c>
       <c r="D354" s="23" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="F354" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G354" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H354" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J354" s="23" t="s">
         <v>1607</v>
@@ -15448,16 +15448,16 @@
         <v>7</v>
       </c>
       <c r="D355" s="23" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="F355" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G355" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H355" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J355" s="23" t="s">
         <v>1607</v>
@@ -15471,16 +15471,16 @@
         <v>7</v>
       </c>
       <c r="D356" s="23" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="F356" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G356" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H356" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J356" s="23" t="s">
         <v>1607</v>
@@ -15494,16 +15494,16 @@
         <v>7</v>
       </c>
       <c r="D357" s="23" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="F357" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G357" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H357" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J357" s="23" t="s">
         <v>1607</v>
@@ -15517,16 +15517,16 @@
         <v>7</v>
       </c>
       <c r="D358" s="23" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="F358" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G358" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H358" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J358" s="23" t="s">
         <v>1607</v>
@@ -15540,16 +15540,16 @@
         <v>7</v>
       </c>
       <c r="D359" s="23" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="F359" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G359" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H359" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J359" s="23" t="s">
         <v>1607</v>
@@ -15563,16 +15563,16 @@
         <v>7</v>
       </c>
       <c r="D360" s="23" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="F360" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G360" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H360" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J360" s="23" t="s">
         <v>1607</v>
@@ -15586,16 +15586,16 @@
         <v>7</v>
       </c>
       <c r="D361" s="23" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="F361" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G361" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H361" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J361" s="23" t="s">
         <v>1607</v>
@@ -15609,16 +15609,16 @@
         <v>7</v>
       </c>
       <c r="D362" s="23" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="F362" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G362" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H362" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J362" s="23" t="s">
         <v>1607</v>
@@ -15632,16 +15632,16 @@
         <v>7</v>
       </c>
       <c r="D363" s="23" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="F363" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G363" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H363" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J363" s="23" t="s">
         <v>1607</v>
@@ -15655,16 +15655,16 @@
         <v>7</v>
       </c>
       <c r="D364" s="23" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="F364" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G364" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H364" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J364" s="23" t="s">
         <v>1607</v>
@@ -15678,16 +15678,16 @@
         <v>7</v>
       </c>
       <c r="D365" s="23" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="F365" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G365" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H365" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J365" s="23" t="s">
         <v>1607</v>
@@ -15701,16 +15701,16 @@
         <v>7</v>
       </c>
       <c r="D366" s="23" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="F366" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G366" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H366" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J366" s="23" t="s">
         <v>1607</v>
@@ -15724,16 +15724,16 @@
         <v>7</v>
       </c>
       <c r="D367" s="23" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="F367" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G367" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H367" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J367" s="23" t="s">
         <v>1607</v>
@@ -15747,16 +15747,16 @@
         <v>7</v>
       </c>
       <c r="D368" s="23" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="F368" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G368" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H368" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J368" s="23" t="s">
         <v>1607</v>
@@ -15770,16 +15770,16 @@
         <v>7</v>
       </c>
       <c r="D369" s="23" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="F369" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G369" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H369" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J369" s="23" t="s">
         <v>1607</v>
@@ -15793,16 +15793,16 @@
         <v>7</v>
       </c>
       <c r="D370" s="23" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="F370" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G370" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H370" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J370" s="23" t="s">
         <v>1607</v>
@@ -15816,16 +15816,16 @@
         <v>7</v>
       </c>
       <c r="D371" s="23" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="F371" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G371" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H371" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J371" s="23" t="s">
         <v>1607</v>
@@ -15839,16 +15839,16 @@
         <v>7</v>
       </c>
       <c r="D372" s="23" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="F372" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G372" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H372" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J372" s="23" t="s">
         <v>1607</v>
@@ -15862,16 +15862,16 @@
         <v>7</v>
       </c>
       <c r="D373" s="23" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="F373" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G373" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H373" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J373" s="23" t="s">
         <v>1607</v>
@@ -15885,16 +15885,16 @@
         <v>7</v>
       </c>
       <c r="D374" s="23" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="F374" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G374" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H374" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J374" s="23" t="s">
         <v>1607</v>
@@ -15908,16 +15908,16 @@
         <v>7</v>
       </c>
       <c r="D375" s="23" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="F375" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G375" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H375" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J375" s="23" t="s">
         <v>1607</v>
@@ -15931,16 +15931,16 @@
         <v>7</v>
       </c>
       <c r="D376" s="23" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="F376" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G376" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H376" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J376" s="23" t="s">
         <v>1607</v>
@@ -15954,16 +15954,16 @@
         <v>7</v>
       </c>
       <c r="D377" s="23" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="F377" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G377" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H377" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J377" s="23" t="s">
         <v>1607</v>
@@ -15977,16 +15977,16 @@
         <v>7</v>
       </c>
       <c r="D378" s="23" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="F378" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G378" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H378" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J378" s="23" t="s">
         <v>1607</v>
@@ -16000,16 +16000,16 @@
         <v>7</v>
       </c>
       <c r="D379" s="23" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="F379" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G379" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H379" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J379" s="23" t="s">
         <v>1607</v>
@@ -16023,16 +16023,16 @@
         <v>7</v>
       </c>
       <c r="D380" s="23" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="F380" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G380" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H380" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J380" s="23" t="s">
         <v>1607</v>
@@ -16046,16 +16046,16 @@
         <v>7</v>
       </c>
       <c r="D381" s="23" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F381" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G381" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H381" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J381" s="23" t="s">
         <v>1607</v>
@@ -16069,16 +16069,16 @@
         <v>7</v>
       </c>
       <c r="D382" s="23" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="F382" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G382" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H382" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J382" s="23" t="s">
         <v>1607</v>
@@ -16092,16 +16092,16 @@
         <v>7</v>
       </c>
       <c r="D383" s="23" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F383" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G383" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H383" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J383" s="23" t="s">
         <v>1607</v>
@@ -16115,16 +16115,16 @@
         <v>7</v>
       </c>
       <c r="D384" s="23" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="F384" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G384" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H384" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J384" s="23" t="s">
         <v>1607</v>
@@ -16138,16 +16138,16 @@
         <v>7</v>
       </c>
       <c r="D385" s="23" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F385" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G385" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H385" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J385" s="23" t="s">
         <v>1607</v>
@@ -16161,16 +16161,16 @@
         <v>7</v>
       </c>
       <c r="D386" s="23" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="F386" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G386" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H386" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J386" s="23" t="s">
         <v>1607</v>
@@ -16184,16 +16184,16 @@
         <v>7</v>
       </c>
       <c r="D387" s="23" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="F387" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G387" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H387" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J387" s="23" t="s">
         <v>1607</v>
@@ -16207,16 +16207,16 @@
         <v>7</v>
       </c>
       <c r="D388" s="23" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="F388" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G388" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H388" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J388" s="23" t="s">
         <v>1607</v>
@@ -16230,16 +16230,16 @@
         <v>7</v>
       </c>
       <c r="D389" s="23" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="F389" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G389" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H389" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J389" s="23" t="s">
         <v>1607</v>
@@ -16253,16 +16253,16 @@
         <v>7</v>
       </c>
       <c r="D390" s="23" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="F390" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G390" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H390" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J390" s="23" t="s">
         <v>1607</v>
@@ -16276,16 +16276,16 @@
         <v>7</v>
       </c>
       <c r="D391" s="23" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="F391" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G391" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H391" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J391" s="23" t="s">
         <v>1607</v>
@@ -16299,16 +16299,16 @@
         <v>7</v>
       </c>
       <c r="D392" s="23" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="F392" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G392" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H392" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J392" s="23" t="s">
         <v>1607</v>
@@ -16322,16 +16322,16 @@
         <v>7</v>
       </c>
       <c r="D393" s="23" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="F393" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G393" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H393" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J393" s="23" t="s">
         <v>1607</v>
@@ -16345,16 +16345,16 @@
         <v>7</v>
       </c>
       <c r="D394" s="23" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F394" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G394" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H394" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J394" s="23" t="s">
         <v>1607</v>
@@ -16368,16 +16368,16 @@
         <v>7</v>
       </c>
       <c r="D395" s="23" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="F395" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G395" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H395" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J395" s="23" t="s">
         <v>1607</v>
@@ -16391,16 +16391,16 @@
         <v>7</v>
       </c>
       <c r="D396" s="23" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="F396" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G396" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H396" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J396" s="23" t="s">
         <v>1607</v>
@@ -16414,16 +16414,16 @@
         <v>7</v>
       </c>
       <c r="D397" s="23" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="F397" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G397" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H397" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J397" s="23" t="s">
         <v>1607</v>
@@ -16437,16 +16437,16 @@
         <v>7</v>
       </c>
       <c r="D398" s="23" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="F398" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G398" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H398" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J398" s="23" t="s">
         <v>1607</v>
@@ -16460,16 +16460,16 @@
         <v>7</v>
       </c>
       <c r="D399" s="23" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="F399" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G399" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H399" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J399" s="23" t="s">
         <v>1607</v>
@@ -16483,16 +16483,16 @@
         <v>7</v>
       </c>
       <c r="D400" s="23" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="F400" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G400" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H400" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J400" s="23" t="s">
         <v>1607</v>
@@ -16506,16 +16506,16 @@
         <v>7</v>
       </c>
       <c r="D401" s="23" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="F401" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G401" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H401" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J401" s="23" t="s">
         <v>1607</v>
@@ -16529,16 +16529,16 @@
         <v>7</v>
       </c>
       <c r="D402" s="23" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F402" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G402" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H402" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J402" s="23" t="s">
         <v>1607</v>
@@ -16552,16 +16552,16 @@
         <v>7</v>
       </c>
       <c r="D403" s="23" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="F403" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G403" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H403" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J403" s="23" t="s">
         <v>1607</v>
@@ -16575,16 +16575,16 @@
         <v>7</v>
       </c>
       <c r="D404" s="23" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F404" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G404" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H404" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J404" s="23" t="s">
         <v>1607</v>
@@ -16598,16 +16598,16 @@
         <v>7</v>
       </c>
       <c r="D405" s="23" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="F405" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G405" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H405" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J405" s="23" t="s">
         <v>1607</v>
@@ -16621,16 +16621,16 @@
         <v>7</v>
       </c>
       <c r="D406" s="23" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F406" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G406" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H406" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J406" s="23" t="s">
         <v>1607</v>
@@ -16644,16 +16644,16 @@
         <v>7</v>
       </c>
       <c r="D407" s="23" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F407" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G407" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H407" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J407" s="23" t="s">
         <v>1607</v>
@@ -16667,16 +16667,16 @@
         <v>7</v>
       </c>
       <c r="D408" s="23" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="F408" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G408" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H408" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J408" s="23" t="s">
         <v>1607</v>
@@ -16690,16 +16690,16 @@
         <v>7</v>
       </c>
       <c r="D409" s="23" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F409" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G409" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H409" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J409" s="23" t="s">
         <v>1607</v>
@@ -16713,16 +16713,16 @@
         <v>7</v>
       </c>
       <c r="D410" s="23" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F410" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G410" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H410" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J410" s="23" t="s">
         <v>1607</v>
@@ -16736,16 +16736,16 @@
         <v>7</v>
       </c>
       <c r="D411" s="23" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F411" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G411" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H411" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J411" s="23" t="s">
         <v>1607</v>
@@ -16759,16 +16759,16 @@
         <v>7</v>
       </c>
       <c r="D412" s="23" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F412" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G412" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H412" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J412" s="23" t="s">
         <v>1607</v>
@@ -16782,16 +16782,16 @@
         <v>7</v>
       </c>
       <c r="D413" s="23" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F413" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G413" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H413" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J413" s="23" t="s">
         <v>1607</v>
@@ -16848,7 +16848,7 @@
         <v>340</v>
       </c>
       <c r="D416" s="23" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="G416" s="23" t="s">
         <v>1597</v>
@@ -17108,7 +17108,7 @@
         <v>343</v>
       </c>
       <c r="D429" s="23" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="G429" s="23" t="s">
         <v>1597</v>
@@ -17168,7 +17168,7 @@
         <v>344</v>
       </c>
       <c r="D432" s="23" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="G432" s="23" t="s">
         <v>1597</v>
@@ -17268,7 +17268,7 @@
         <v>345</v>
       </c>
       <c r="D437" s="23" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="G437" s="23" t="s">
         <v>1597</v>
@@ -17291,13 +17291,13 @@
         <v>653</v>
       </c>
       <c r="F438" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G438" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H438" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J438" s="23" t="s">
         <v>1607</v>
@@ -17414,7 +17414,7 @@
         <v>345</v>
       </c>
       <c r="D444" s="23" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="G444" s="23" t="s">
         <v>1597</v>
@@ -17477,13 +17477,13 @@
         <v>1414</v>
       </c>
       <c r="F447" s="23" t="s">
-        <v>2066</v>
+        <v>2337</v>
       </c>
       <c r="G447" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="H447" s="27" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J447" s="23" t="s">
         <v>1607</v>
@@ -17520,7 +17520,7 @@
         <v>345</v>
       </c>
       <c r="D449" s="23" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="G449" s="23" t="s">
         <v>1597</v>
@@ -17560,7 +17560,7 @@
         <v>345</v>
       </c>
       <c r="D451" s="23" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="G451" s="23" t="s">
         <v>1597</v>
@@ -17580,7 +17580,7 @@
         <v>345</v>
       </c>
       <c r="D452" s="23" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="G452" s="23" t="s">
         <v>1597</v>
@@ -17600,7 +17600,7 @@
         <v>345</v>
       </c>
       <c r="D453" s="23" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="G453" s="23" t="s">
         <v>1597</v>
@@ -17620,7 +17620,7 @@
         <v>345</v>
       </c>
       <c r="D454" s="23" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="G454" s="23" t="s">
         <v>1597</v>
@@ -17640,7 +17640,7 @@
         <v>346</v>
       </c>
       <c r="D455" s="23" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="G455" s="23" t="s">
         <v>1597</v>
@@ -18100,7 +18100,7 @@
         <v>349</v>
       </c>
       <c r="D478" s="23" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="G478" s="23" t="s">
         <v>1597</v>
@@ -18120,7 +18120,7 @@
         <v>349</v>
       </c>
       <c r="D479" s="23" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="G479" s="23" t="s">
         <v>1597</v>
@@ -18220,7 +18220,7 @@
         <v>350</v>
       </c>
       <c r="D484" s="23" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="G484" s="23" t="s">
         <v>1597</v>
@@ -18337,7 +18337,7 @@
         <v>350</v>
       </c>
       <c r="D490" s="23" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="G490" s="23" t="s">
         <v>1597</v>
@@ -18397,7 +18397,7 @@
         <v>350</v>
       </c>
       <c r="D493" s="23" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="G493" s="23" t="s">
         <v>1597</v>
@@ -18417,7 +18417,7 @@
         <v>350</v>
       </c>
       <c r="D494" s="23" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="G494" s="23" t="s">
         <v>1597</v>
@@ -18434,10 +18434,10 @@
         <v>7</v>
       </c>
       <c r="C495" s="23" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="D495" s="23" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="G495" s="23" t="s">
         <v>1597</v>
@@ -18488,8 +18488,8 @@
       <formula1>0</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Spécifier &quot;o&quot; (&quot;oui&quot;) si cela est un établissement privé." promptTitle="Établissement privé?" prompt="Entrer &quot;o&quot; si cela est un établissement non public (peut entrer &quot;n&quot; ou laisser vide pour les établissements publics)." sqref="F4:F3998">
-      <formula1>"o,n"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Spécifier &quot;o&quot; (&quot;oui&quot;) si cela est un établissement privé." promptTitle="Établissement public ou privé?" sqref="F4:F3998">
+      <formula1>"public,prive"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26008,7 +26008,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
